--- a/data/trans_camb/IP7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 4,55</t>
+          <t>-6,3; 4,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 2,52</t>
+          <t>-7,9; 2,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 9,15</t>
+          <t>-4,32; 10,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 2,06</t>
+          <t>-6,67; 1,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 5,11</t>
+          <t>-5,55; 5,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 19,54</t>
+          <t>-4,98; 16,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 1,75</t>
+          <t>-5,37; 1,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,47</t>
+          <t>-5,97; 1,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 9,93</t>
+          <t>-3,19; 10,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,5; 170,71</t>
+          <t>-79,47; 202,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 152,09</t>
+          <t>-100,0; 141,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,69; 336,71</t>
+          <t>-64,56; 394,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-89,29; 140,4</t>
+          <t>-89,04; 107,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,35; 275,24</t>
+          <t>-85,83; 279,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,58; 1000,69</t>
+          <t>-87,35; 671,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,27; 62,72</t>
+          <t>-74,75; 65,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,93; 52,57</t>
+          <t>-81,4; 69,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 310,22</t>
+          <t>-49,25; 298,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,99</t>
+          <t>-2,48; 1,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,8</t>
+          <t>-2,85; 0,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; -0,24</t>
+          <t>-3,58; -0,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,95</t>
+          <t>-0,3; 2,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,16</t>
+          <t>-0,96; 2,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,78</t>
+          <t>-0,58; 2,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,44</t>
+          <t>-0,98; 1,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,92</t>
+          <t>-1,31; 0,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 0,64</t>
+          <t>-1,6; 0,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,87; 42,59</t>
+          <t>-57,22; 48,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,7; 38,62</t>
+          <t>-64,6; 30,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-76,69; -2,62</t>
+          <t>-77,76; -6,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 311,6</t>
+          <t>-23,88; 285,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,71; 241,81</t>
+          <t>-44,93; 249,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,57; 321,04</t>
+          <t>-32,18; 303,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 79,76</t>
+          <t>-34,04; 72,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,69; 49,52</t>
+          <t>-45,05; 50,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 34,68</t>
+          <t>-51,51; 33,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,78</t>
+          <t>-4,39; 0,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 0,51</t>
+          <t>-4,56; 0,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,69</t>
+          <t>-2,97; 3,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,84</t>
+          <t>-0,61; 2,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,29</t>
+          <t>-0,8; 1,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,77</t>
+          <t>-0,07; 4,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,08</t>
+          <t>-1,97; 0,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,55</t>
+          <t>-2,1; 0,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,91</t>
+          <t>-1,02; 2,86</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 112,21</t>
+          <t>-100,0; 93,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 74,91</t>
+          <t>-100,0; 104,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-75,34; 250,2</t>
+          <t>-71,89; 249,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-82,38; 202,63</t>
+          <t>-80,55; 165,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-86,43; 86,8</t>
+          <t>-83,58; 97,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,45; 320,81</t>
+          <t>-50,85; 340,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,53</t>
+          <t>-2,56; 0,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,01</t>
+          <t>-2,76; -0,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 0,37</t>
+          <t>-2,61; 0,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,91</t>
+          <t>-0,63; 1,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,38</t>
+          <t>-0,94; 1,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,78</t>
+          <t>-0,3; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,76</t>
+          <t>-1,13; 0,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,31</t>
+          <t>-1,53; 0,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,98</t>
+          <t>-1,11; 0,97</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-57,59; 20,51</t>
+          <t>-56,52; 13,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-67,48; 0,3</t>
+          <t>-63,33; 2,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,09; 15,7</t>
+          <t>-60,46; 10,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 163,03</t>
+          <t>-30,18; 145,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 114,98</t>
+          <t>-41,68; 115,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 231,28</t>
+          <t>-17,51; 213,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 32,83</t>
+          <t>-36,3; 37,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 16,8</t>
+          <t>-49,96; 16,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 46,5</t>
+          <t>-37,76; 45,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP7_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP7_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 1,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 4,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,57; 35,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,06; 4,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,43; 2,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 11,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,88; 1,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,45; 2,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 19,5</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,28%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,0; 96,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 227,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,12; 2954,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,71; 162,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 115,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,33; 423,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,76; 59,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,08; 71,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,22; 682,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-0,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 4,46</t>
+          <t>-0,36; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 2,2</t>
+          <t>-0,84; 2,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 10,67</t>
+          <t>-0,71; 2,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 1,6</t>
+          <t>-2,56; 0,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 5,41</t>
+          <t>-2,65; 0,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 16,45</t>
+          <t>-3,25; 0,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 1,68</t>
+          <t>-1,12; 1,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 1,85</t>
+          <t>-1,4; 0,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 10,44</t>
+          <t>-1,56; 0,72</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,12%</t>
+          <t>79,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-47,23%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-47,63%</t>
+          <t>-22,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,08%</t>
+          <t>-30,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>-51,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-34,67%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-37,24%</t>
+          <t>-10,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>-18,77%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,47; 202,63</t>
+          <t>-21,26; 312,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 141,96</t>
+          <t>-44,48; 228,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,56; 394,2</t>
+          <t>-33,17; 315,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-89,04; 107,7</t>
+          <t>-57,41; 43,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-85,83; 279,32</t>
+          <t>-62,68; 25,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-87,35; 671,3</t>
+          <t>-77,33; 7,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-74,75; 65,02</t>
+          <t>-34,56; 70,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,4; 69,32</t>
+          <t>-44,51; 48,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,25; 298,24</t>
+          <t>-51,6; 41,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 1,02</t>
+          <t>-0,48; 2,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,71</t>
+          <t>-0,79; 1,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,28</t>
+          <t>-0,2; 4,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,95</t>
+          <t>-4,06; 1,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,07</t>
+          <t>-4,78; 0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,76</t>
+          <t>-2,98; 3,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,38</t>
+          <t>-1,83; 1,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,91</t>
+          <t>-2,32; 0,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,65</t>
+          <t>-0,93; 3,1</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,81%</t>
+          <t>158,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,56%</t>
+          <t>72,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-52,43%</t>
+          <t>371,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>79,57%</t>
+          <t>-55,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>-61,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>63,13%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>-28,77%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,93%</t>
+          <t>-43,76%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,62%</t>
+          <t>54,12%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 48,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,6; 30,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,76; -6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 285,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,93; 249,06</t>
+          <t>-100,0; 102,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 303,92</t>
+          <t>-74,74; 272,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 72,91</t>
+          <t>-81,99; 178,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 50,34</t>
+          <t>-92,07; 58,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 33,32</t>
+          <t>-51,35; 329,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,73</t>
+          <t>-0,6; 1,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,3</t>
+          <t>-0,97; 1,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,31</t>
+          <t>-0,06; 4,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,44</t>
+          <t>-2,46; 0,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,33</t>
+          <t>-2,98; -0,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,58</t>
+          <t>-2,66; 0,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,98</t>
+          <t>-1,22; 0,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 0,58</t>
+          <t>-1,48; 0,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,86</t>
+          <t>-0,88; 1,53</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-55,42%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-61,42%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>158,42%</t>
+          <t>-29,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>72,3%</t>
+          <t>-40,89%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>379,38%</t>
+          <t>-30,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-28,77%</t>
+          <t>-8,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-43,76%</t>
+          <t>-24,27%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 93,45</t>
+          <t>-28,29; 162,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 104,21</t>
+          <t>-41,59; 117,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 249,28</t>
+          <t>-13,12; 354,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,2; 13,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,09; -3,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,17; 14,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-80,55; 165,34</t>
+          <t>-38,74; 34,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-83,58; 97,65</t>
+          <t>-48,18; 15,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 340,62</t>
+          <t>-28,73; 67,85</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 0,33</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; -0,06</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 0,26</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 1,79</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 1,32</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 2,62</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 0,81</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 0,34</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 0,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-29,26%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-40,83%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-32,66%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>37,05%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>11,97%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>58,11%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-8,42%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-24,23%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-4,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-56,52; 13,61</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-63,33; 2,01</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-60,46; 10,83</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-30,18; 145,12</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-41,68; 115,22</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-17,51; 213,65</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-36,3; 37,2</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-49,96; 16,15</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-37,76; 45,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
